--- a/datos_relu_prop.xlsx
+++ b/datos_relu_prop.xlsx
@@ -1,46 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\395048_2_11\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E8402E-1265-4CE4-BE41-D151A6533537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="1">
-  <si>
-    <t>-</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -361,301 +408,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="n">
         <v>2</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="n">
         <v>10</v>
       </c>
-      <c r="C1">
-        <v>1.7188692092895509E-2</v>
-      </c>
-      <c r="D1">
-        <v>2.3040771484374999E-4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>172.41447937573699</v>
-      </c>
-      <c r="H1">
-        <v>436.26073535096901</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" t="n">
+        <v>0.01718869209289551</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00023040771484375</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1" t="n">
+        <v>172.414479375737</v>
+      </c>
+      <c r="H1" t="n">
+        <v>436.260735350969</v>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>1.711182594299316E-2</v>
-      </c>
-      <c r="D2">
-        <v>2.291440963745117E-4</v>
-      </c>
-      <c r="E2">
-        <v>2.2850036621093749E-4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>145.54962463464071</v>
-      </c>
-      <c r="H2">
-        <v>296.56698740906921</v>
-      </c>
-      <c r="I2">
-        <v>748.10525999621029</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C2" t="n">
+        <v>0.01711182594299316</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002291440963745117</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0002285003662109375</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>145.5496246346407</v>
+      </c>
+      <c r="H2" t="n">
+        <v>296.5669874090692</v>
+      </c>
+      <c r="I2" t="n">
+        <v>748.1052599962103</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>1.725001335144043E-2</v>
-      </c>
-      <c r="D3">
-        <v>2.2902488708496089E-4</v>
-      </c>
-      <c r="E3">
-        <v>2.2771358489990229E-4</v>
-      </c>
-      <c r="F3">
-        <v>2.279758453369141E-4</v>
-      </c>
-      <c r="G3">
-        <v>135.40466801543991</v>
-      </c>
-      <c r="H3">
-        <v>268.36235978199733</v>
-      </c>
-      <c r="I3">
-        <v>650.30608653249385</v>
-      </c>
-      <c r="J3">
-        <v>1575.5229553477129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C3" t="n">
+        <v>0.01725001335144043</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0002290248870849609</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0002277135848999023</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0002279758453369141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>135.4046680154399</v>
+      </c>
+      <c r="H3" t="n">
+        <v>268.3623597819973</v>
+      </c>
+      <c r="I3" t="n">
+        <v>650.3060865324939</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1575.522955347713</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>25</v>
       </c>
-      <c r="C4">
-        <v>1.7197999954223629E-2</v>
-      </c>
-      <c r="D4">
-        <v>5.5985450744628902E-4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>203.00780392735561</v>
-      </c>
-      <c r="H4">
-        <v>1257.0442195326609</v>
-      </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C4" t="n">
+        <v>0.01719799995422363</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.000559854507446289</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>203.0078039273556</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1257.044219532661</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>25</v>
       </c>
-      <c r="C5">
-        <v>1.716354370117187E-2</v>
-      </c>
-      <c r="D5">
-        <v>5.5876731872558591E-4</v>
-      </c>
-      <c r="E5">
-        <v>5.5856704711914067E-4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>73.534318436302243</v>
-      </c>
-      <c r="H5">
-        <v>177.98928508737259</v>
-      </c>
-      <c r="I5">
-        <v>520.23500768437282</v>
-      </c>
-      <c r="J5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C5" t="n">
+        <v>0.01716354370117187</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0005587673187255859</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0005585670471191407</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>73.53431843630224</v>
+      </c>
+      <c r="H5" t="n">
+        <v>177.9892850873726</v>
+      </c>
+      <c r="I5" t="n">
+        <v>520.2350076843728</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>25</v>
       </c>
-      <c r="C6">
-        <v>1.7127933502197261E-2</v>
-      </c>
-      <c r="D6">
-        <v>5.556869506835937E-4</v>
-      </c>
-      <c r="E6">
-        <v>5.5603981018066402E-4</v>
-      </c>
-      <c r="F6">
-        <v>5.5623054504394531E-4</v>
-      </c>
-      <c r="G6">
-        <v>86.489245458219813</v>
-      </c>
-      <c r="H6">
-        <v>224.09163232497539</v>
-      </c>
-      <c r="I6">
-        <v>653.13974197315747</v>
-      </c>
-      <c r="J6">
-        <v>2099.6321368180361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C6" t="n">
+        <v>0.01712793350219726</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0005556869506835937</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.000556039810180664</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0005562305450439453</v>
+      </c>
+      <c r="G6" t="n">
+        <v>86.48924545821981</v>
+      </c>
+      <c r="H6" t="n">
+        <v>224.0916323249754</v>
+      </c>
+      <c r="I6" t="n">
+        <v>653.1397419731575</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2099.632136818036</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>50</v>
       </c>
-      <c r="C7">
-        <v>1.7252278327941899E-2</v>
-      </c>
-      <c r="D7">
-        <v>1.1024951934814451E-3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>153.17472380244689</v>
-      </c>
-      <c r="H7">
-        <v>1613.8171650349061</v>
-      </c>
-      <c r="I7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C7" t="n">
+        <v>0.0172522783279419</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.001102495193481445</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>153.1747238024469</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1613.817165034906</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>50</v>
       </c>
-      <c r="C8">
-        <v>1.7178344726562499E-2</v>
-      </c>
-      <c r="D8">
-        <v>1.10750675201416E-3</v>
-      </c>
-      <c r="E8">
-        <v>1.1113405227661131E-3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="C8" t="n">
+        <v>0.0171783447265625</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00110750675201416</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.001111340522766113</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>75.69370117151783</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>309.6010903745638</v>
       </c>
-      <c r="I8">
-        <v>1796.9824426126049</v>
-      </c>
-      <c r="J8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="I8" t="n">
+        <v>1796.982442612605</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>50</v>
       </c>
-      <c r="C9">
-        <v>1.7218790054321292E-2</v>
-      </c>
-      <c r="D9">
-        <v>1.096715927124023E-3</v>
-      </c>
-      <c r="E9">
-        <v>1.0911512374877929E-3</v>
-      </c>
-      <c r="F9">
-        <v>1.0904073715209961E-3</v>
-      </c>
-      <c r="G9">
-        <v>71.272484119048713</v>
-      </c>
-      <c r="H9">
-        <v>267.60304141588551</v>
-      </c>
-      <c r="I9">
-        <v>1073.6524519385989</v>
-      </c>
-      <c r="J9">
-        <v>5592.8272360098172</v>
+      <c r="C9" t="n">
+        <v>0.01721879005432129</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.001096715927124023</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.001091151237487793</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001090407371520996</v>
+      </c>
+      <c r="G9" t="n">
+        <v>71.27248411904871</v>
+      </c>
+      <c r="H9" t="n">
+        <v>267.6030414158855</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1073.652451938599</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5592.827236009817</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01749987602233887</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0001238346099853516</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>87.59270929134546</v>
+      </c>
+      <c r="H10" t="n">
+        <v>167.0150465075163</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01751852035522461</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0001223564147949219</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0001214981079101563</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>78.85803922057076</v>
+      </c>
+      <c r="H11" t="n">
+        <v>132.1106553132734</v>
+      </c>
+      <c r="I11" t="n">
+        <v>216.7228792188246</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01746072769165039</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0001218318939208984</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0001219272613525391</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.000121760368347168</v>
+      </c>
+      <c r="G12" t="n">
+        <v>76.18077330597825</v>
+      </c>
+      <c r="H12" t="n">
+        <v>135.372755137353</v>
+      </c>
+      <c r="I12" t="n">
+        <v>206.8892336535714</v>
+      </c>
+      <c r="J12" t="n">
+        <v>371.9078691060364</v>
       </c>
     </row>
   </sheetData>

--- a/datos_relu_prop.xlsx
+++ b/datos_relu_prop.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,6 +853,438 @@
         <v>371.9078691060364</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0174288272857666</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0001223087310791016</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>87.59270929134546</v>
+      </c>
+      <c r="H13" t="n">
+        <v>167.0150465075163</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01764206886291504</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0001238822937011719</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0001223087310791016</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>78.85803922057076</v>
+      </c>
+      <c r="H14" t="n">
+        <v>132.1106553132734</v>
+      </c>
+      <c r="I14" t="n">
+        <v>216.7228792188246</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01754636764526367</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0001234531402587891</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0001230716705322266</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0001235723495483398</v>
+      </c>
+      <c r="G15" t="n">
+        <v>76.18077330597825</v>
+      </c>
+      <c r="H15" t="n">
+        <v>135.372755137353</v>
+      </c>
+      <c r="I15" t="n">
+        <v>206.8892336535714</v>
+      </c>
+      <c r="J15" t="n">
+        <v>371.9078691060364</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01752884387969971</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0002345085144042969</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>68.29046801446157</v>
+      </c>
+      <c r="H16" t="n">
+        <v>181.163236431827</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01748085021972656</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0002334833145141601</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0002325773239135742</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>62.43954469891078</v>
+      </c>
+      <c r="H17" t="n">
+        <v>121.1335736589307</v>
+      </c>
+      <c r="I17" t="n">
+        <v>298.1964132303734</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0173637866973877</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.000233006477355957</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.000232386589050293</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0002328872680664062</v>
+      </c>
+      <c r="G18" t="n">
+        <v>61.45289649511778</v>
+      </c>
+      <c r="H18" t="n">
+        <v>108.6994890662953</v>
+      </c>
+      <c r="I18" t="n">
+        <v>222.7292946780116</v>
+      </c>
+      <c r="J18" t="n">
+        <v>501.0664908999269</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0171694278717041</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0001188278198242187</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>87.59270929134546</v>
+      </c>
+      <c r="H19" t="n">
+        <v>167.0150465075163</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01708717346191406</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0001195907592773438</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0001190662384033203</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>78.85803922057076</v>
+      </c>
+      <c r="H20" t="n">
+        <v>132.1106553132734</v>
+      </c>
+      <c r="I20" t="n">
+        <v>216.7228792188246</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0169703483581543</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0001193523406982422</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0001187324523925781</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0001186847686767578</v>
+      </c>
+      <c r="G21" t="n">
+        <v>76.18077330597825</v>
+      </c>
+      <c r="H21" t="n">
+        <v>135.372755137353</v>
+      </c>
+      <c r="I21" t="n">
+        <v>206.8892336535714</v>
+      </c>
+      <c r="J21" t="n">
+        <v>371.9078691060364</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01716444492340088</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0002291679382324219</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>68.29046801446157</v>
+      </c>
+      <c r="H22" t="n">
+        <v>181.163236431827</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01684315204620361</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.000226140022277832</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0002259016036987305</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>62.43954469891078</v>
+      </c>
+      <c r="H23" t="n">
+        <v>121.1335736589307</v>
+      </c>
+      <c r="I23" t="n">
+        <v>298.1964132303734</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0170461893081665</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0002279758453369141</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0002292633056640625</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0002298355102539062</v>
+      </c>
+      <c r="G24" t="n">
+        <v>61.45289649511778</v>
+      </c>
+      <c r="H24" t="n">
+        <v>108.6994890662953</v>
+      </c>
+      <c r="I24" t="n">
+        <v>222.7292946780116</v>
+      </c>
+      <c r="J24" t="n">
+        <v>501.0664908999269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_relu_prop.xlsx
+++ b/datos_relu_prop.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,222 @@
         <v>501.0664908999269</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01695575714111328</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0001193761825561523</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>87.59270929134546</v>
+      </c>
+      <c r="H7" t="n">
+        <v>167.0150465075163</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01706366539001465</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0001199722290039062</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0001196384429931641</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>78.85803922057076</v>
+      </c>
+      <c r="H8" t="n">
+        <v>132.1106553132734</v>
+      </c>
+      <c r="I8" t="n">
+        <v>216.7228792188246</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01701521873474121</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0001198291778564453</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0001193523406982422</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0001195192337036133</v>
+      </c>
+      <c r="G9" t="n">
+        <v>76.18077330597825</v>
+      </c>
+      <c r="H9" t="n">
+        <v>135.372755137353</v>
+      </c>
+      <c r="I9" t="n">
+        <v>206.8892336535714</v>
+      </c>
+      <c r="J9" t="n">
+        <v>371.9078691060364</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01702594757080078</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0002287387847900391</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>68.29046801446157</v>
+      </c>
+      <c r="H10" t="n">
+        <v>181.163236431827</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01705155372619629</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0002282381057739258</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0002283334732055664</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>62.43954469891078</v>
+      </c>
+      <c r="H11" t="n">
+        <v>121.1335736589307</v>
+      </c>
+      <c r="I11" t="n">
+        <v>298.1964132303734</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01696274280548096</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.000227808952331543</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0002287149429321289</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0002291202545166016</v>
+      </c>
+      <c r="G12" t="n">
+        <v>61.45289649511778</v>
+      </c>
+      <c r="H12" t="n">
+        <v>108.6994890662953</v>
+      </c>
+      <c r="I12" t="n">
+        <v>222.7292946780116</v>
+      </c>
+      <c r="J12" t="n">
+        <v>501.0664908999269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
